--- a/server/branch/protected/models/excel/example/入河排污口统计模板.xlsx
+++ b/server/branch/protected/models/excel/example/入河排污口统计模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="7180" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="3340" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>入河排污口统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,7 +37,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>所在村</t>
+    <t>排水口处理方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间歇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明渠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涵闸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排污口位置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -45,47 +85,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>排水口处理方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
+    <t>所在村</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间歇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明渠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涵闸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排污口位置</t>
+    <t>入河方式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -196,6 +200,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -204,7 +234,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -255,28 +285,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -560,488 +596,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" ht="19">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:17" s="14" customFormat="1" ht="19">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="13"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
       <c r="P1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="O2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" s="14" customFormat="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" s="14" customFormat="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="17" t="s">
+      <c r="H3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="K3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="L3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="M3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="7"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="K4" s="7"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="K5" s="7"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="K6" s="7"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="K7" s="7"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="K8" s="7"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="K9" s="7"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="K10" s="7"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="K11" s="7"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="5"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
       <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="5"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="6"/>
       <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="5"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
       <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="5"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
+      <c r="O17" s="8"/>
       <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="8"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1051,14 +1113,15 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -1069,8 +1132,9 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1087,8 +1151,9 @@
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1097,27 +1162,30 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="I28" s="8"/>
       <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="M2:M3"/>
+  <mergeCells count="10">
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:M2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
